--- a/AMEX 2017.xlsx
+++ b/AMEX 2017.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="30" windowWidth="10200" windowHeight="8745" activeTab="1"/>
+    <workbookView xWindow="8985" yWindow="30" windowWidth="10200" windowHeight="8745" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
     <sheet name="Feb" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Mar" sheetId="3" r:id="rId3"/>
+    <sheet name="Apr" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="168">
   <si>
     <t>01/03/2017  Tue</t>
   </si>
@@ -228,9 +229,6 @@
     <t>Dispute submitted on 2/11</t>
   </si>
   <si>
-    <t>AT&amp;T</t>
-  </si>
-  <si>
     <t>04/06/2017  Thu</t>
   </si>
   <si>
@@ -508,13 +506,31 @@
   </si>
   <si>
     <t>EXPRESS SCRIPTS PHARMACY - FAIRFIELD, OH</t>
+  </si>
+  <si>
+    <t>at&amp;t</t>
+  </si>
+  <si>
+    <t>Will be refunded by Amazon</t>
+  </si>
+  <si>
+    <t>106.18-</t>
+  </si>
+  <si>
+    <t>Amazon rep charged me by mistake</t>
+  </si>
+  <si>
+    <t>Amazon rep refund again</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +565,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -576,12 +598,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="A20:XFD20"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,17 +925,17 @@
     <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="1">
         <v>199</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1502,1468 +1533,649 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="11">
+        <v>610.96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="11">
+        <v>140.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="11">
+        <v>106.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="11">
+        <v>106.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="11">
+        <v>85.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="11">
+        <v>83.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="11">
+        <v>57.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="11">
+        <v>57.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C11" s="11">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1">
-        <v>140.76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="11">
+        <v>50.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="11">
+        <v>48.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="11">
+        <v>46.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="11">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="11">
+        <v>37.549999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C17" s="11">
         <v>30.65</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="11">
+        <v>29.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="11">
+        <v>26.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="11">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="11">
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="11">
+        <v>22.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="11">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="11">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="11">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="11">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B29" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C29" s="11">
         <v>13.94</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="30" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="11">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="11">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C32" s="11">
         <v>12.85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="11">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="11">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="11">
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C5">
+      <c r="C36" s="11">
         <v>10.89</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="37" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="11">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="11">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="11">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="11">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C41" s="11">
         <v>6.96</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="11">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C43" s="11">
         <v>6.42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="44" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="11">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="11">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="11">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="11">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="11">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C50" s="11">
         <v>2.46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12">
-        <v>13.94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14">
-        <v>10.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>30.65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16">
-        <v>12.85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19">
-        <v>29.58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21">
-        <v>11.96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H22">
+      <c r="C51" s="11">
+        <v>-11.79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="11">
+        <v>-11.79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="11">
+        <v>-11.79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="11">
         <v>-11.81</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H23">
+      <c r="C55" s="11">
         <v>-11.81</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24">
-        <v>-11.79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25">
-        <v>-11.79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26">
-        <v>-11.79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27">
-        <v>11.79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28">
-        <v>11.79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29">
-        <v>106.18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30">
-        <v>106.18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32">
-        <v>46.27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37">
-        <v>18.32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" t="s">
-        <v>152</v>
-      </c>
-      <c r="H38">
-        <v>44.44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" t="s">
-        <v>150</v>
-      </c>
-      <c r="H39">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40">
-        <v>140.76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="11">
+        <v>-610.96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H41">
+      <c r="C57" s="11">
         <v>-913.17</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42">
-        <v>74.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" t="s">
-        <v>147</v>
-      </c>
-      <c r="H43">
-        <v>50.37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44">
-        <v>9.51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H45">
-        <v>16.829999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46">
-        <v>8.6300000000000008</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" t="s">
-        <v>143</v>
-      </c>
-      <c r="H47">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48">
-        <v>22.53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" t="s">
-        <v>127</v>
-      </c>
-      <c r="H49">
-        <v>15.95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H51">
-        <v>23.65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" t="s">
-        <v>139</v>
-      </c>
-      <c r="H52">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
-      </c>
-      <c r="H53">
-        <v>26.13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" t="s">
-        <v>137</v>
-      </c>
-      <c r="H54">
-        <v>48.16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" t="s">
-        <v>137</v>
-      </c>
-      <c r="H55">
-        <v>83.01</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" t="s">
-        <v>137</v>
-      </c>
-      <c r="H56">
-        <v>85.69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
-      </c>
-      <c r="H57">
-        <v>37.549999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" t="s">
-        <v>135</v>
-      </c>
-      <c r="H58">
-        <v>24.14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" t="s">
-        <v>53</v>
-      </c>
-      <c r="H59">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H60">
-        <v>610.96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61">
-        <v>-610.96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62">
-        <v>12.85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" t="s">
-        <v>121</v>
-      </c>
-      <c r="H63">
-        <v>57.92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" t="s">
-        <v>121</v>
-      </c>
-      <c r="H64">
-        <v>57.92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="H65">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" t="s">
-        <v>131</v>
-      </c>
-      <c r="H67">
-        <v>9.32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" t="s">
-        <v>54</v>
-      </c>
-      <c r="H68">
-        <v>8.69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" t="s">
-        <v>129</v>
-      </c>
-      <c r="H70">
-        <v>9.24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" t="s">
-        <v>127</v>
-      </c>
-      <c r="H72">
-        <v>15.95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" t="s">
-        <v>110</v>
-      </c>
-      <c r="H74">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" t="s">
-        <v>124</v>
-      </c>
-      <c r="H75">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" t="s">
-        <v>122</v>
-      </c>
-      <c r="H76">
-        <v>-199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" t="s">
-        <v>121</v>
-      </c>
-      <c r="H77">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" t="s">
-        <v>120</v>
-      </c>
-      <c r="H78">
-        <v>15.72</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" t="s">
-        <v>83</v>
-      </c>
-      <c r="H79">
-        <v>17.559999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80" t="s">
-        <v>5</v>
-      </c>
-      <c r="H80">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81" t="s">
-        <v>118</v>
-      </c>
-      <c r="H81">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82" t="s">
-        <v>5</v>
-      </c>
-      <c r="H82">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" t="s">
-        <v>90</v>
-      </c>
-      <c r="H83">
-        <v>16.829999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" t="s">
-        <v>114</v>
-      </c>
-      <c r="H84">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>113</v>
-      </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-      <c r="H85">
-        <v>46.96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>113</v>
-      </c>
-      <c r="C86" t="s">
-        <v>112</v>
-      </c>
-      <c r="H86">
-        <v>20.37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" t="s">
-        <v>110</v>
-      </c>
-      <c r="H87">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" t="s">
-        <v>42</v>
-      </c>
-      <c r="H88">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="H89">
-        <v>29.69</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>108</v>
-      </c>
-      <c r="C90" t="s">
-        <v>26</v>
-      </c>
-      <c r="H90">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>108</v>
-      </c>
-      <c r="C91" t="s">
-        <v>107</v>
-      </c>
-      <c r="H91">
-        <v>4.47</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>106</v>
-      </c>
-      <c r="C92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H92">
-        <v>155.25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>106</v>
-      </c>
-      <c r="C93" t="s">
-        <v>50</v>
-      </c>
-      <c r="H93">
-        <v>6.85</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C94" t="s">
-        <v>35</v>
-      </c>
-      <c r="H94">
-        <v>140.76</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C95" t="s">
-        <v>90</v>
-      </c>
-      <c r="H95">
-        <v>16.829999999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" t="s">
-        <v>50</v>
-      </c>
-      <c r="H96">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H97">
-        <v>-1298.48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>103</v>
-      </c>
-      <c r="C98" t="s">
-        <v>42</v>
-      </c>
-      <c r="H98">
-        <v>7.66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" t="s">
-        <v>104</v>
-      </c>
-      <c r="H99">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" t="s">
-        <v>102</v>
-      </c>
-      <c r="H100">
-        <v>132.08000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" t="s">
-        <v>66</v>
-      </c>
-      <c r="H101">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="C102" t="s">
-        <v>33</v>
-      </c>
-      <c r="H102">
-        <v>15.39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>100</v>
-      </c>
-      <c r="C103" t="s">
-        <v>99</v>
-      </c>
-      <c r="H103">
-        <v>130.44</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>97</v>
-      </c>
-      <c r="C104" t="s">
-        <v>98</v>
-      </c>
-      <c r="H104">
-        <v>39.14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" t="s">
-        <v>5</v>
-      </c>
-      <c r="H105">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106" t="s">
-        <v>96</v>
-      </c>
-      <c r="H106">
-        <v>14.28</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108" t="s">
-        <v>33</v>
-      </c>
-      <c r="H108">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>94</v>
-      </c>
-      <c r="C109" t="s">
-        <v>37</v>
-      </c>
-      <c r="H109">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>93</v>
-      </c>
-      <c r="C110" t="s">
-        <v>92</v>
-      </c>
-      <c r="H110">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>91</v>
-      </c>
-      <c r="C111" t="s">
-        <v>32</v>
-      </c>
-      <c r="H111">
-        <v>12.96</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>91</v>
-      </c>
-      <c r="C112" t="s">
-        <v>32</v>
-      </c>
-      <c r="H112">
-        <v>15.23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>91</v>
-      </c>
-      <c r="C113" t="s">
-        <v>33</v>
-      </c>
-      <c r="H113">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>89</v>
-      </c>
-      <c r="C114" t="s">
-        <v>53</v>
-      </c>
-      <c r="H114">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>89</v>
-      </c>
-      <c r="C115" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>89</v>
-      </c>
-      <c r="C116" t="s">
-        <v>90</v>
-      </c>
-      <c r="H116">
-        <v>16.829999999999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>89</v>
-      </c>
-      <c r="C117" t="s">
-        <v>50</v>
-      </c>
-      <c r="H117">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" t="s">
-        <v>37</v>
-      </c>
-      <c r="H118">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>86</v>
-      </c>
-      <c r="C119" t="s">
-        <v>87</v>
-      </c>
-      <c r="H119">
-        <v>8.59</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>86</v>
-      </c>
-      <c r="C120" t="s">
-        <v>6</v>
-      </c>
-      <c r="H120">
-        <v>38.17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>84</v>
-      </c>
-      <c r="C121" t="s">
-        <v>85</v>
-      </c>
-      <c r="H121">
-        <v>38.340000000000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>84</v>
-      </c>
-      <c r="C122" t="s">
-        <v>85</v>
-      </c>
-      <c r="H122">
-        <v>48.25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>84</v>
-      </c>
-      <c r="C123" t="s">
-        <v>83</v>
-      </c>
-      <c r="H123">
-        <v>17.559999999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>82</v>
-      </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124">
-        <v>34.28</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>82</v>
-      </c>
-      <c r="C125" t="s">
-        <v>81</v>
-      </c>
-      <c r="H125">
-        <v>18.13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" t="s">
-        <v>79</v>
-      </c>
-      <c r="H126">
-        <v>80.63</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>78</v>
-      </c>
-      <c r="C127" t="s">
-        <v>77</v>
-      </c>
-      <c r="H127">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>75</v>
-      </c>
-      <c r="C128" t="s">
-        <v>76</v>
-      </c>
-      <c r="H128">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>75</v>
-      </c>
-      <c r="C129" t="s">
-        <v>74</v>
-      </c>
-      <c r="H129">
-        <v>10.68</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>73</v>
-      </c>
-      <c r="C130" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>71</v>
-      </c>
-      <c r="C131" t="s">
-        <v>72</v>
-      </c>
-      <c r="H131">
-        <v>16.09</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>71</v>
-      </c>
-      <c r="C132" t="s">
-        <v>50</v>
-      </c>
-      <c r="H132">
-        <v>1.98</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A1:H8">
-    <sortCondition descending="1" ref="C1:C8"/>
+  <sortState ref="A1:C57">
+    <sortCondition descending="1" ref="C1:C57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -2972,12 +2184,815 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1">
+        <v>155.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1">
+        <v>140.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1">
+        <v>132.08000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1">
+        <v>130.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1">
+        <v>48.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>46.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="1">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="1">
+        <v>38.340000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>38.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>34.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>29.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="1">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="1">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="1">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="1">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="1">
+        <v>-1298.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C59">
+    <sortCondition descending="1" ref="C1:C59"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1">
+        <v>80.63</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="6">
+        <v>141.93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>42841</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>42841</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8">
+        <v>106.18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>42841</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AMEX 2017.xlsx
+++ b/AMEX 2017.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizk\Documents\_Personal\Recon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="30" windowWidth="10200" windowHeight="8745" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5604" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
     <sheet name="Feb" sheetId="2" r:id="rId2"/>
     <sheet name="Mar" sheetId="3" r:id="rId3"/>
     <sheet name="Apr" sheetId="4" r:id="rId4"/>
+    <sheet name="May" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="209">
   <si>
     <t>01/03/2017  Tue</t>
   </si>
@@ -508,19 +514,142 @@
     <t>EXPRESS SCRIPTS PHARMACY - FAIRFIELD, OH</t>
   </si>
   <si>
-    <t>at&amp;t</t>
-  </si>
-  <si>
-    <t>Will be refunded by Amazon</t>
-  </si>
-  <si>
-    <t>106.18-</t>
-  </si>
-  <si>
-    <t>Amazon rep charged me by mistake</t>
-  </si>
-  <si>
-    <t>Amazon rep refund again</t>
+    <t>05/19/2017  Fri</t>
+  </si>
+  <si>
+    <t>05/18/2017  Thu</t>
+  </si>
+  <si>
+    <t>STONEFIRE GRILL THOUSAND OAKS 65000000 - WESTLAKE VILLAGE, CA</t>
+  </si>
+  <si>
+    <t>05/17/2017  Wed</t>
+  </si>
+  <si>
+    <t>AUTOPAY PAYMENT - THANK YOU</t>
+  </si>
+  <si>
+    <t>05/16/2017  Tue</t>
+  </si>
+  <si>
+    <t>05/15/2017  Mon</t>
+  </si>
+  <si>
+    <t>AEROSOLES DIRECT MARKET 0369 - EDISON, NJ</t>
+  </si>
+  <si>
+    <t>05/10/2017  Wed</t>
+  </si>
+  <si>
+    <t>LAXSHUTTLETIX.COM - ANAHEIM, CA</t>
+  </si>
+  <si>
+    <t>05/07/2017  Sun</t>
+  </si>
+  <si>
+    <t>CHEVRON 0357800/CHEVRON - SIMI VALLEY, CA</t>
+  </si>
+  <si>
+    <t>05/05/2017  Fri</t>
+  </si>
+  <si>
+    <t>05/04/2017  Thu</t>
+  </si>
+  <si>
+    <t>05/03/2017  Wed</t>
+  </si>
+  <si>
+    <t>05/02/2017  Tue</t>
+  </si>
+  <si>
+    <t>05/01/2017  Mon</t>
+  </si>
+  <si>
+    <t>04/29/2017  Sat</t>
+  </si>
+  <si>
+    <t>LIVERPOOL INTER 0039 - MEXICO DF</t>
+  </si>
+  <si>
+    <t>04/28/2017  Fri</t>
+  </si>
+  <si>
+    <t>04/27/2017  Thu</t>
+  </si>
+  <si>
+    <t>04/26/2017  Wed</t>
+  </si>
+  <si>
+    <t>04/24/2017  Mon</t>
+  </si>
+  <si>
+    <t>04/23/2017  Sun</t>
+  </si>
+  <si>
+    <t>04/22/2017  Sat</t>
+  </si>
+  <si>
+    <t>04/21/2017  Fri</t>
+  </si>
+  <si>
+    <t>04/20/2017  Thu</t>
+  </si>
+  <si>
+    <t>OASIS CATERING272814 93719272814 - NEWBURY PARK, CA</t>
+  </si>
+  <si>
+    <t>04/19/2017  Wed</t>
+  </si>
+  <si>
+    <t>04/18/2017  Tue</t>
+  </si>
+  <si>
+    <t>04/17/2017  Mon</t>
+  </si>
+  <si>
+    <t>STATE FARM INSURANCE - BLOOMINGTON, IL</t>
+  </si>
+  <si>
+    <t>04/16/2017  Sun</t>
+  </si>
+  <si>
+    <t>THE GEORGIAN HOTEL F &amp; B 6500000095051 - SANTA MONICA, CA</t>
+  </si>
+  <si>
+    <t>04/15/2017  Sat</t>
+  </si>
+  <si>
+    <t>LAX AIRPORT LOT P - LOS ANGELES, CA</t>
+  </si>
+  <si>
+    <t>IDENTOGO - TSA PRE 1157 - LOS ANGELES, CA</t>
+  </si>
+  <si>
+    <t>ABM ONSITE VIL WSTFLD TPN 084870020067 - WOODLAND HILL, CA</t>
+  </si>
+  <si>
+    <t>04/14/2017  Fri</t>
+  </si>
+  <si>
+    <t>04/13/2017  Thu</t>
+  </si>
+  <si>
+    <t>04/12/2017  Wed</t>
+  </si>
+  <si>
+    <t>04/11/2017  Tue</t>
+  </si>
+  <si>
+    <t>04/08/2017  Sat</t>
+  </si>
+  <si>
+    <t>IN N OUT BURGER 053 650000009324750 - NEWHALL, CA</t>
+  </si>
+  <si>
+    <t>04/07/2017  Fri</t>
+  </si>
+  <si>
+    <t>Laura's wedding present</t>
   </si>
 </sst>
 </file>
@@ -530,7 +659,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +700,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -598,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -613,6 +749,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,6 +763,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -670,7 +814,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,7 +849,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -916,16 +1060,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -939,7 +1083,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -950,7 +1094,7 @@
         <v>140.91</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -961,7 +1105,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -972,7 +1116,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -983,7 +1127,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -994,7 +1138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,7 +1149,7 @@
         <v>43.83</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1016,7 +1160,7 @@
         <v>40.35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -1027,7 +1171,7 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1182,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1049,7 +1193,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1215,7 @@
         <v>22.06</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1082,7 +1226,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -1093,7 +1237,7 @@
         <v>17.62</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1248,7 @@
         <v>13.89</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -1115,7 +1259,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1270,7 @@
         <v>12.32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1281,7 @@
         <v>12.17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1148,7 +1292,7 @@
         <v>11.79</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1159,7 +1303,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1170,7 +1314,7 @@
         <v>10.71</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1181,7 +1325,7 @@
         <v>10.19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1192,7 +1336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1203,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1214,7 +1358,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1225,7 +1369,7 @@
         <v>9.98</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -1236,7 +1380,7 @@
         <v>9.64</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +1391,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1258,7 +1402,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1269,7 +1413,7 @@
         <v>8.59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -1280,7 +1424,7 @@
         <v>8.23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1291,7 +1435,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -1302,7 +1446,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -1313,7 +1457,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1468,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1335,7 +1479,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -1346,7 +1490,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -1357,7 +1501,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1512,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -1379,7 +1523,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -1390,7 +1534,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -1401,7 +1545,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -1412,7 +1556,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1423,7 +1567,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -1434,7 +1578,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -1445,7 +1589,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
@@ -1456,7 +1600,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1467,7 +1611,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1478,7 +1622,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -1489,7 +1633,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -1500,7 +1644,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,8 +1655,8 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>34</v>
       </c>
@@ -1535,18 +1679,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="15.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>133</v>
       </c>
@@ -1557,7 +1701,7 @@
         <v>610.96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>148</v>
       </c>
@@ -1568,7 +1712,7 @@
         <v>140.76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>158</v>
       </c>
@@ -1579,7 +1723,7 @@
         <v>106.18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>158</v>
       </c>
@@ -1590,7 +1734,7 @@
         <v>106.18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>135</v>
       </c>
@@ -1601,7 +1745,7 @@
         <v>85.69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>135</v>
       </c>
@@ -1612,7 +1756,7 @@
         <v>83.01</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>148</v>
       </c>
@@ -1623,7 +1767,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>131</v>
       </c>
@@ -1634,7 +1778,7 @@
         <v>57.92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>131</v>
       </c>
@@ -1645,7 +1789,7 @@
         <v>57.92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>139</v>
       </c>
@@ -1656,7 +1800,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>65</v>
       </c>
@@ -1667,7 +1811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>147</v>
       </c>
@@ -1678,7 +1822,7 @@
         <v>50.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>135</v>
       </c>
@@ -1689,7 +1833,7 @@
         <v>48.16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>157</v>
       </c>
@@ -1700,7 +1844,7 @@
         <v>46.27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>150</v>
       </c>
@@ -1711,7 +1855,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>135</v>
       </c>
@@ -1722,7 +1866,7 @@
         <v>37.549999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>67</v>
       </c>
@@ -1733,7 +1877,7 @@
         <v>30.65</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>160</v>
       </c>
@@ -1744,7 +1888,7 @@
         <v>29.58</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>131</v>
       </c>
@@ -1755,7 +1899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>135</v>
       </c>
@@ -1766,7 +1910,7 @@
         <v>26.13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>160</v>
       </c>
@@ -1777,7 +1921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>135</v>
       </c>
@@ -1788,7 +1932,7 @@
         <v>24.14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>139</v>
       </c>
@@ -1799,7 +1943,7 @@
         <v>23.65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>141</v>
       </c>
@@ -1810,7 +1954,7 @@
         <v>22.53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>150</v>
       </c>
@@ -1821,7 +1965,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>153</v>
       </c>
@@ -1832,7 +1976,7 @@
         <v>18.32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>144</v>
       </c>
@@ -1843,7 +1987,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>140</v>
       </c>
@@ -1854,7 +1998,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>63</v>
       </c>
@@ -1865,7 +2009,7 @@
         <v>13.94</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>133</v>
       </c>
@@ -1876,7 +2020,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>131</v>
       </c>
@@ -1887,7 +2031,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>68</v>
       </c>
@@ -1898,7 +2042,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>158</v>
       </c>
@@ -1909,7 +2053,7 @@
         <v>11.96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>158</v>
       </c>
@@ -1920,7 +2064,7 @@
         <v>11.79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>158</v>
       </c>
@@ -1931,7 +2075,7 @@
         <v>11.79</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>65</v>
       </c>
@@ -1942,7 +2086,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>154</v>
       </c>
@@ -1953,7 +2097,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>145</v>
       </c>
@@ -1964,7 +2108,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>144</v>
       </c>
@@ -1975,7 +2119,7 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>143</v>
       </c>
@@ -1986,7 +2130,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>61</v>
       </c>
@@ -1997,7 +2141,7 @@
         <v>6.96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>153</v>
       </c>
@@ -2008,7 +2152,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>61</v>
       </c>
@@ -2019,7 +2163,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>155</v>
       </c>
@@ -2030,7 +2174,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>135</v>
       </c>
@@ -2041,7 +2185,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>157</v>
       </c>
@@ -2052,7 +2196,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>131</v>
       </c>
@@ -2063,7 +2207,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>154</v>
       </c>
@@ -2074,7 +2218,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>160</v>
       </c>
@@ -2085,7 +2229,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>68</v>
       </c>
@@ -2096,7 +2240,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>158</v>
       </c>
@@ -2107,7 +2251,7 @@
         <v>-11.79</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>158</v>
       </c>
@@ -2118,7 +2262,7 @@
         <v>-11.79</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>158</v>
       </c>
@@ -2129,7 +2273,7 @@
         <v>-11.79</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>158</v>
       </c>
@@ -2140,7 +2284,7 @@
         <v>-11.81</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>158</v>
       </c>
@@ -2151,7 +2295,7 @@
         <v>-11.81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>131</v>
       </c>
@@ -2162,7 +2306,7 @@
         <v>-610.96</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>148</v>
       </c>
@@ -2186,16 +2330,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -2206,7 +2350,7 @@
         <v>155.25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
@@ -2217,7 +2361,7 @@
         <v>140.76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -2228,7 +2372,7 @@
         <v>132.08000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -2239,7 +2383,7 @@
         <v>130.44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -2250,7 +2394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>100</v>
       </c>
@@ -2261,7 +2405,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>122</v>
       </c>
@@ -2272,7 +2416,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -2283,7 +2427,7 @@
         <v>48.25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
@@ -2294,7 +2438,7 @@
         <v>46.96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>96</v>
       </c>
@@ -2305,7 +2449,7 @@
         <v>39.14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
@@ -2316,7 +2460,7 @@
         <v>38.340000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
@@ -2327,7 +2471,7 @@
         <v>38.17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>81</v>
       </c>
@@ -2338,7 +2482,7 @@
         <v>34.28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -2349,7 +2493,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>108</v>
       </c>
@@ -2360,7 +2504,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>112</v>
       </c>
@@ -2371,7 +2515,7 @@
         <v>20.37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -2382,7 +2526,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>118</v>
       </c>
@@ -2393,7 +2537,7 @@
         <v>17.559999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -2404,7 +2548,7 @@
         <v>17.559999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>115</v>
       </c>
@@ -2415,7 +2559,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
@@ -2426,7 +2570,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -2437,7 +2581,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
@@ -2448,7 +2592,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>118</v>
       </c>
@@ -2459,7 +2603,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -2470,7 +2614,7 @@
         <v>15.39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -2481,7 +2625,7 @@
         <v>15.23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
@@ -2492,7 +2636,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
@@ -2503,7 +2647,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -2514,7 +2658,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>107</v>
       </c>
@@ -2525,7 +2669,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>129</v>
       </c>
@@ -2536,7 +2680,7 @@
         <v>9.32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
@@ -2547,7 +2691,7 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
@@ -2558,7 +2702,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>129</v>
       </c>
@@ -2569,7 +2713,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
@@ -2580,7 +2724,7 @@
         <v>8.59</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -2591,7 +2735,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>108</v>
       </c>
@@ -2602,7 +2746,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
@@ -2613,7 +2757,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
@@ -2624,7 +2768,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>125</v>
       </c>
@@ -2635,7 +2779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>116</v>
       </c>
@@ -2646,7 +2790,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>107</v>
       </c>
@@ -2657,7 +2801,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -2668,7 +2812,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
@@ -2679,7 +2823,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -2690,7 +2834,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
@@ -2701,7 +2845,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -2712,7 +2856,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
@@ -2723,7 +2867,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>87</v>
       </c>
@@ -2734,7 +2878,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -2745,7 +2889,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
@@ -2756,7 +2900,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>116</v>
       </c>
@@ -2767,7 +2911,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
@@ -2778,7 +2922,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -2789,7 +2933,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
@@ -2800,7 +2944,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>88</v>
       </c>
@@ -2811,7 +2955,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>125</v>
       </c>
@@ -2822,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
@@ -2833,7 +2977,7 @@
         <v>-199</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>102</v>
       </c>
@@ -2855,144 +2999,804 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="2">
+        <v>477.92</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="2">
+        <v>221.44</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>141.93</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>106.18</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1">
+        <v>95</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1">
+        <v>80.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="2">
+        <v>55.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2">
+        <v>34.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>25.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="2">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="2">
+        <v>-106.18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="2">
+        <v>-106.18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-1786.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C47">
+    <sortCondition descending="1" ref="C1:C47"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="1">
-        <v>80.63</v>
-      </c>
-      <c r="E1" s="5" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3">
+        <v>142.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="6">
-        <v>141.93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10.68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="2">
+        <v>39.619999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5/4</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="2">
+        <v>38.619999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="2">
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2">
         <v>6.96</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>42841</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>42841</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="8">
-        <v>106.18</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>42841</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B19" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="C19" s="2">
+        <v>-1508.14</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A1:C19">
+    <sortCondition descending="1" ref="C1:C19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="82ad3a63-90ad-4a46-a3cb-757f4658e205" origin="userSelected">
+  <element uid="768aceb2-b366-4b48-827b-e820edc548bd" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{568EA4AD-26BB-415B-B3A8-BAC3E3DD1770}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AMEX 2017.xlsx
+++ b/AMEX 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5604" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5604" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="Mar" sheetId="3" r:id="rId3"/>
     <sheet name="Apr" sheetId="4" r:id="rId4"/>
     <sheet name="May" sheetId="5" r:id="rId5"/>
+    <sheet name="June" sheetId="6" r:id="rId6"/>
+    <sheet name="July" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="281">
   <si>
     <t>01/03/2017  Tue</t>
   </si>
@@ -650,6 +652,222 @@
   </si>
   <si>
     <t>Laura's wedding present</t>
+  </si>
+  <si>
+    <t>ALI BABA'S CAFE - SIMI VALLEY, CA</t>
+  </si>
+  <si>
+    <t>07/06/2017  Thu</t>
+  </si>
+  <si>
+    <t>MANDALAY BAY HTL SELF PA 0000 - LAS VEGAS, NV</t>
+  </si>
+  <si>
+    <t>07/02/2017  Sun</t>
+  </si>
+  <si>
+    <t>CHEVRON 0307168/CHEVRON - HENDERSON, NV</t>
+  </si>
+  <si>
+    <t>BONANNOS 039300981721755 - LAS VEGAS, NV</t>
+  </si>
+  <si>
+    <t>DEL TACO 175 542929803111822 - VICTORVILLE, CA</t>
+  </si>
+  <si>
+    <t>07/01/2017  Sat</t>
+  </si>
+  <si>
+    <t>06/30/2017  Fri</t>
+  </si>
+  <si>
+    <t>ARROYO VISTA VETERINAR - MOORPARK, CA</t>
+  </si>
+  <si>
+    <t>WOOD RANCH BBQ 000000012 - MOORPARK, CA</t>
+  </si>
+  <si>
+    <t>06/29/2017  Thu</t>
+  </si>
+  <si>
+    <t>06/28/2017  Wed</t>
+  </si>
+  <si>
+    <t>06/27/2017  Tue</t>
+  </si>
+  <si>
+    <t>06/26/2017  Mon</t>
+  </si>
+  <si>
+    <t>06/25/2017  Sun</t>
+  </si>
+  <si>
+    <t>SHELL OIL 57442725206 - CHATSWORTH, CA</t>
+  </si>
+  <si>
+    <t>MCDONALD'S - AGOURA HILLS, CA</t>
+  </si>
+  <si>
+    <t>BEST BUY MHT 001305 29500001305 - NORTHRIDGE, CA</t>
+  </si>
+  <si>
+    <t>06/24/2017  Sat</t>
+  </si>
+  <si>
+    <t>06/23/2017  Fri</t>
+  </si>
+  <si>
+    <t>06/22/2017  Thu</t>
+  </si>
+  <si>
+    <t>06/17/2017  Sat</t>
+  </si>
+  <si>
+    <t>06/16/2017  Fri</t>
+  </si>
+  <si>
+    <t>WAL-MART 2621 2621 - SIMI VALLEY, DE</t>
+  </si>
+  <si>
+    <t>06/14/2017  Wed</t>
+  </si>
+  <si>
+    <t>BAJA FRESH 30003 286000000102004 - SHERMAN OAKS, CA</t>
+  </si>
+  <si>
+    <t>THE HOME DEPOT - THOUSAND OAKS, CA</t>
+  </si>
+  <si>
+    <t>06/13/2017  Tue</t>
+  </si>
+  <si>
+    <t>LOWE'S - SIMI VALLEY, CA</t>
+  </si>
+  <si>
+    <t>CORNER BAKERY CAFE - SIMI VALLEY, CA</t>
+  </si>
+  <si>
+    <t>06/12/2017  Mon</t>
+  </si>
+  <si>
+    <t>MCDONALD'S - SIMI VALLEY, CA</t>
+  </si>
+  <si>
+    <t>06/11/2017  Sun</t>
+  </si>
+  <si>
+    <t>5923 EL POLLO LOCO 650000008747647 - NEWHALL, CA</t>
+  </si>
+  <si>
+    <t>06/10/2017  Sat</t>
+  </si>
+  <si>
+    <t>06/09/2017  Fri</t>
+  </si>
+  <si>
+    <t>06/08/2017  Thu</t>
+  </si>
+  <si>
+    <t>06/07/2017  Wed</t>
+  </si>
+  <si>
+    <t>06/06/2017  Tue</t>
+  </si>
+  <si>
+    <t>06/05/2017  Mon</t>
+  </si>
+  <si>
+    <t>PORTOS BAKERY DOWNEY 0076 - DOWNEY, CA</t>
+  </si>
+  <si>
+    <t>06/04/2017  Sun</t>
+  </si>
+  <si>
+    <t>TOTAL WINE AND MORE 1107 TOTAL WINE AN - THOUSAND OAKS, CA</t>
+  </si>
+  <si>
+    <t>06/03/2017  Sat</t>
+  </si>
+  <si>
+    <t>06/02/2017  Fri</t>
+  </si>
+  <si>
+    <t>BELLINI OSTERIA - WESTLAKE, CA</t>
+  </si>
+  <si>
+    <t>06/01/2017  Thu</t>
+  </si>
+  <si>
+    <t>TRANSACTION PROCESSED BY AMERICAN EXPRESS</t>
+  </si>
+  <si>
+    <t>05/31/2017  Wed</t>
+  </si>
+  <si>
+    <t>WAWA GAS STORE - PHILADELPHIA, PA</t>
+  </si>
+  <si>
+    <t>05/29/2017  Mon</t>
+  </si>
+  <si>
+    <t>IN N OUT BURGER 171 650000009327001 - SANTA CLARITA, CA</t>
+  </si>
+  <si>
+    <t>DANDY MINI MARTS - CANDOR, NY</t>
+  </si>
+  <si>
+    <t>BUDGET RENT A CAR - PHILADELPHIA, PA</t>
+  </si>
+  <si>
+    <t>TRILLIUM DINING - ITHACA, NY</t>
+  </si>
+  <si>
+    <t>05/28/2017  Sun</t>
+  </si>
+  <si>
+    <t>THE CORNELL STORE THE CORNELL STO - ITHACA, NY</t>
+  </si>
+  <si>
+    <t>05/27/2017  Sat</t>
+  </si>
+  <si>
+    <t>UBER *MAY26 JG6ZC - HELP.UBER.COM, CA</t>
+  </si>
+  <si>
+    <t>05/26/2017  Fri</t>
+  </si>
+  <si>
+    <t>PPA AUTOPARK AT IND MALL PHRV000405 PH - PHILADELPHIA, PA</t>
+  </si>
+  <si>
+    <t>ITALIAN CARRY OUT 650000007093381 - ITHACA, NY</t>
+  </si>
+  <si>
+    <t>INDEPENDENCE VISIT - PHILADELPHIA, PA</t>
+  </si>
+  <si>
+    <t>PPA PHL AIRPORT PHLY000244 PHLY - PHILADELPHIA, PA</t>
+  </si>
+  <si>
+    <t>05/25/2017  Thu</t>
+  </si>
+  <si>
+    <t>THE ROSE BOWL 0000 - PASADENA, CA</t>
+  </si>
+  <si>
+    <t>05/22/2017  Mon</t>
+  </si>
+  <si>
+    <t>05/21/2017  Sun</t>
+  </si>
+  <si>
+    <t>BRU GRILL - PASEDENA, CA</t>
+  </si>
+  <si>
+    <t>LURE FISH HOUSE - WESTLAKE VILLAGE, CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WK Laura </t>
   </si>
 </sst>
 </file>
@@ -1060,9 +1278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1679,9 +1895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3553,10 +3767,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3565,7 +3779,7 @@
     <col min="2" max="2" width="60.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>168</v>
       </c>
@@ -3576,211 +3790,1209 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="1">
+        <v>149.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="3">
         <v>142.15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="1">
+        <v>82.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C5" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="1">
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1">
+        <v>57.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C8" s="2">
         <v>39.619999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C9" s="2">
         <v>39</v>
       </c>
-      <c r="D5" s="2">
-        <f>C5/4</f>
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C10" s="2">
         <v>38.619999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="1">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="1">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="1">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C14" s="2">
         <v>23.95</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="1">
+        <v>23.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="1">
+        <v>22.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="1">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C22" s="2">
         <v>16.29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="1">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C27" s="2">
         <v>9.99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C28" s="2">
         <v>9.32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C29" s="2">
         <v>8.65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C30" s="2">
         <v>8.57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C33" s="2">
         <v>6.96</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C34" s="2">
         <v>6.96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C35" s="2">
         <v>3.65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C36" s="2">
         <v>3.65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C37" s="2">
         <v>2.46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C38" s="2">
         <v>2.46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C39" s="2">
         <v>-1508.14</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C19">
-    <sortCondition descending="1" ref="C1:C19"/>
+  <sortState ref="A1:C52">
+    <sortCondition descending="1" ref="C1:C52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="60.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="1">
+        <v>306.16000000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="1">
+        <v>251.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="1">
+        <v>176.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3">
+        <v>142.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="1">
+        <v>72.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="1">
+        <v>64.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="1">
+        <v>64.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="1">
+        <v>54.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>48.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="1">
+        <v>40.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1">
+        <v>40.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="1">
+        <v>36.380000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="1">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="1">
+        <v>28.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="1">
+        <v>27.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="1">
+        <v>27.54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="1">
+        <v>25.96</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="1">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="1">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1">
+        <v>20.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="1">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="1">
+        <v>18.79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="1">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="1">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="1">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="1">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="1">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="1">
+        <v>-27.46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="1">
+        <v>-29.42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1">
+        <v>-1430.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C61">
+    <sortCondition descending="1" ref="C1:C61"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="44.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1">
+        <v>40.67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="1">
+        <v>31.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6">
+        <v>2.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C6">
+    <sortCondition descending="1" ref="C1:C6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3793,7 +5005,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{568EA4AD-26BB-415B-B3A8-BAC3E3DD1770}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD010E12-6B98-4022-A98D-D43326025087}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/AMEX 2017.xlsx
+++ b/AMEX 2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5604" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="5604" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="May" sheetId="5" r:id="rId5"/>
     <sheet name="June" sheetId="6" r:id="rId6"/>
     <sheet name="July" sheetId="7" r:id="rId7"/>
+    <sheet name="Aug" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="333">
   <si>
     <t>01/03/2017  Tue</t>
   </si>
@@ -868,6 +869,162 @@
   </si>
   <si>
     <t xml:space="preserve">WK Laura </t>
+  </si>
+  <si>
+    <t>07/31/2017  Mon</t>
+  </si>
+  <si>
+    <t>WAL-MART STORE#2621 2621 - SIMI VALLEY, CA</t>
+  </si>
+  <si>
+    <t>07/30/2017  Sun</t>
+  </si>
+  <si>
+    <t>VICTORIA'S SECRET 0423 - THOUSAND OAKS, CA</t>
+  </si>
+  <si>
+    <t>07/29/2017  Sat</t>
+  </si>
+  <si>
+    <t>RED ROBIN NO 673 000000673 - THOUSAND OAKS, CA</t>
+  </si>
+  <si>
+    <t>ALBERTSONS STORE 0393 - SIMI VALLEY, CA</t>
+  </si>
+  <si>
+    <t>07/28/2017  Fri</t>
+  </si>
+  <si>
+    <t>BEST BUY 001123 29500001123 - THOUSAND OAKS, CA</t>
+  </si>
+  <si>
+    <t>07/27/2017  Thu</t>
+  </si>
+  <si>
+    <t>07/26/2017  Wed</t>
+  </si>
+  <si>
+    <t>07/25/2017  Tue</t>
+  </si>
+  <si>
+    <t>BB*ALZHEIMERS ASSOC. Blackbaud Inc. - CHICAGO, IL</t>
+  </si>
+  <si>
+    <t>07/24/2017  Mon</t>
+  </si>
+  <si>
+    <t>07/22/2017  Sat</t>
+  </si>
+  <si>
+    <t>07/21/2017  Fri</t>
+  </si>
+  <si>
+    <t>07/20/2017  Thu</t>
+  </si>
+  <si>
+    <t>07/18/2017  Tue</t>
+  </si>
+  <si>
+    <t>BRENTS DELI 000000000000000 - NORTHRIDGE, CA</t>
+  </si>
+  <si>
+    <t>07/17/2017  Mon</t>
+  </si>
+  <si>
+    <t>07/16/2017  Sun</t>
+  </si>
+  <si>
+    <t>07/14/2017  Fri</t>
+  </si>
+  <si>
+    <t>07/13/2017  Thu</t>
+  </si>
+  <si>
+    <t>07/12/2017  Wed</t>
+  </si>
+  <si>
+    <t>07/11/2017  Tue</t>
+  </si>
+  <si>
+    <t>07/10/2017  Mon</t>
+  </si>
+  <si>
+    <t>07/09/2017  Sun</t>
+  </si>
+  <si>
+    <t>07/08/2017  Sat</t>
+  </si>
+  <si>
+    <t>MCDONALD'S - THOUSAND OAKS, CA</t>
+  </si>
+  <si>
+    <t>07/07/2017  Fri</t>
+  </si>
+  <si>
+    <t>SUBWAY 100889 25504100889 - SIMI VALLEY, CA</t>
+  </si>
+  <si>
+    <t>08/24/2017  Thu</t>
+  </si>
+  <si>
+    <t>08/20/2017  Sun</t>
+  </si>
+  <si>
+    <t>08/19/2017  Sat</t>
+  </si>
+  <si>
+    <t>TST* FIRE ISLAND GRILL - 300003623 - SIMI VALLEY, CA</t>
+  </si>
+  <si>
+    <t>08/18/2017  Fri</t>
+  </si>
+  <si>
+    <t>08/17/2017  Thu</t>
+  </si>
+  <si>
+    <t>08/16/2017  Wed</t>
+  </si>
+  <si>
+    <t>08/14/2017  Mon</t>
+  </si>
+  <si>
+    <t>08/13/2017  Sun</t>
+  </si>
+  <si>
+    <t>08/12/2017  Sat</t>
+  </si>
+  <si>
+    <t>DEL TACO - MOORPARK, CA</t>
+  </si>
+  <si>
+    <t>08/10/2017  Thu</t>
+  </si>
+  <si>
+    <t>08/09/2017  Wed</t>
+  </si>
+  <si>
+    <t>08/08/2017  Tue</t>
+  </si>
+  <si>
+    <t>08/07/2017  Mon</t>
+  </si>
+  <si>
+    <t>08/06/2017  Sun</t>
+  </si>
+  <si>
+    <t>08/04/2017  Fri</t>
+  </si>
+  <si>
+    <t>08/03/2017  Thu</t>
+  </si>
+  <si>
+    <t>08/02/2017  Wed</t>
+  </si>
+  <si>
+    <t>MERCADO GUADALAJARA 2 - NEWBURY PARK, CA</t>
+  </si>
+  <si>
+    <t>08/01/2017  Tue</t>
   </si>
 </sst>
 </file>
@@ -3770,7 +3927,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3801,14 +3958,14 @@
         <v>149.07</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>142.15</v>
       </c>
     </row>
@@ -4221,7 +4378,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4262,14 +4419,14 @@
         <v>176.16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>142.15</v>
       </c>
     </row>
@@ -4913,86 +5070,1128 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
     <col min="2" max="2" width="44.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1">
-        <v>40.67</v>
+      <c r="A1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="2">
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1">
+        <v>142.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="2">
+        <v>85.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="2">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="2">
+        <v>56.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="2">
+        <v>46.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="3">
+        <v>42.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40.090000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="2">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="1">
+        <v>37.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="1">
+        <v>35.049999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="1">
+        <v>34.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>31.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C18" s="1">
         <v>31.23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>29.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>28.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="2">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="2">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="2">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="3">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="2">
+        <v>19.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="2">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C31" s="1">
         <v>12.23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="2">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C34" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="3">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C40" s="1">
         <v>8.51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="2">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="2">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="2">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45" s="2">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="2">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B64" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C6">
+      <c r="C64" s="2">
         <v>2.16</v>
       </c>
     </row>
+    <row r="66" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" s="2">
+        <v>-7.41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="2">
+        <v>-7.95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="3">
+        <v>-64.78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" s="2">
+        <v>-90.49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="2">
+        <v>-1984.3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:C6">
-    <sortCondition descending="1" ref="C1:C6"/>
+  <sortState ref="A1:C69">
+    <sortCondition descending="1" ref="C1:C69"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1">
+        <v>142.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2">
+        <v>50.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>41.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="2">
+        <v>28.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2">
+        <v>24.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="2">
+        <v>23.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="2">
+        <v>21.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="2">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" s="2">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="3">
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H17" s="2">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H21" s="2">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-1575.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:H30">
+    <sortCondition descending="1" ref="H1:H30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5005,7 +6204,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD010E12-6B98-4022-A98D-D43326025087}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47F9119C-BB28-42E1-B769-363333368DC6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
